--- a/Excel Files/Scenario 1/Expected Data/TC176/Expected Purchase Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC176/Expected Purchase Order.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="114">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -333,7 +333,7 @@
     <t>1234</t>
   </si>
   <si>
-    <t>pCB201-2311001</t>
+    <t>pDB204-2311001</t>
   </si>
   <si>
     <t>Firm</t>
@@ -345,13 +345,13 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>06 Nov 2023 - 12 Nov 2023</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
   </si>
   <si>
     <t>By Invoice Date</t>
   </si>
   <si>
-    <t>13 Nov ~ 19 Nov</t>
+    <t>04 Dec ~ 10 Dec</t>
   </si>
   <si>
     <t>FC Qty 1</t>
@@ -363,7 +363,7 @@
     <t>PK-TTAP-s1-005</t>
   </si>
   <si>
-    <t>sCB101-2311001</t>
+    <t>sDB104-2311001</t>
   </si>
   <si>
     <t>CNTW-SUP-POC</t>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>ROL</t>
-  </si>
-  <si>
-    <t>Completed</t>
   </si>
   <si>
     <t>s1002</t>
@@ -9916,7 +9913,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45231.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10073,19 +10070,19 @@
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="2" t="n">
-        <v>45238.0</v>
+        <v>45252.0</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>45280.0</v>
+        <v>45301.0</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>45306.0</v>
+        <v>45343.0</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>45236.0</v>
+        <v>45264.0</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>45240.0</v>
+        <v>45266.0</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -10130,7 +10127,7 @@
         <v>106</v>
       </c>
       <c r="P24" s="42" t="n">
-        <v>600.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q24" s="42" t="n">
         <v>600.0</v>
@@ -10142,7 +10139,7 @@
         <v>200.0</v>
       </c>
       <c r="T24" s="42" t="n">
-        <v>200.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="25">
@@ -10184,24 +10181,26 @@
         <v>1000.0</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P25" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q25" s="42" t="n">
         <v>1620.0</v>
       </c>
       <c r="R25" s="42"/>
       <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
+      <c r="T25" s="42" t="n">
+        <v>1620.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25" t="s">
@@ -10235,26 +10234,28 @@
         <v>1000.0</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P26" s="42" t="n">
-        <v>1620.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q26" s="42" t="n">
         <v>1620.0</v>
       </c>
       <c r="R26" s="42"/>
       <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
+      <c r="T26" s="42" t="n">
+        <v>1620.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="R29" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="R30" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
